--- a/seaforth_sportfishing_2019.xlsx
+++ b/seaforth_sportfishing_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaikai Liu\Documents\PythonProjects\web-scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkk12\Documents\PythonProjects\web-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E085E21-A718-4031-8152-27741F0A1E25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1DD7DA-846C-47E6-83D7-DEC239FAFF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="seaforth_sportfishing" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -55,12 +55,15 @@
   <si>
     <t>Calico</t>
   </si>
+  <si>
+    <t>Moon phase</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +197,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="33">
@@ -537,9 +550,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10658,7 +10677,1897 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>seaforth_sportfishing!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moon phase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>seaforth_sportfishing!$A$2:$A$316</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="315"/>
+                <c:pt idx="0">
+                  <c:v>43467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43481</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43482</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43484</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43489</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43490</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43494</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43503</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43505</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43506</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43507</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43515</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43516</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43518</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43519</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43520</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43522</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43527</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43528</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43529</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43531</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43533</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43534</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43535</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43537</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43538</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43540</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43541</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43543</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43545</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43546</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43547</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43548</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43549</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43551</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43552</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43553</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43554</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43557</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43558</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43559</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43560</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43561</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43562</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43563</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43566</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43568</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43569</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43570</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43571</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43572</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43573</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43574</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43575</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43576</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43577</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43578</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43579</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43580</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43581</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43582</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43583</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43584</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43587</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43588</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43589</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43590</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43591</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43592</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43593</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43594</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43595</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43596</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43597</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43598</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43599</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43601</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43603</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43604</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43608</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43609</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43610</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43611</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43612</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43613</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43614</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43615</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43618</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43619</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43620</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43621</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43622</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43623</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43624</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43625</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43626</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43627</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43628</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43629</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>43630</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43631</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43632</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43633</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43634</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>43635</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43636</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43637</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43638</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43639</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43640</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43641</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43642</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43643</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43644</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>43645</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43648</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43649</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43650</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43651</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43652</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43653</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>43654</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>43655</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>43656</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>43657</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>43658</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>43659</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>43660</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>43661</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>43662</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43663</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43664</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43665</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43666</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43667</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43668</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>43669</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>43670</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>43671</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>43672</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43673</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43674</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43675</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43676</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43677</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43679</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43680</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43681</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43682</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43683</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43684</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43685</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43686</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43687</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43688</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43689</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43690</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43691</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43692</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43693</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43694</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43695</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43696</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43697</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43698</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43699</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43700</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43701</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43702</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43703</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43704</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43705</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43706</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43707</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43708</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43710</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43711</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43712</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>43713</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>43714</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>43716</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>43717</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43718</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43719</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>43720</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>43721</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>43722</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>43723</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>43724</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>43725</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>43726</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>43727</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>43728</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>43730</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>43731</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>43732</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>43733</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>43734</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>43735</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>43737</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>43740</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>43741</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>43742</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>43744</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>43745</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>43746</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>43747</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>43748</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>43749</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>43750</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>43751</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>43752</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>43753</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>43754</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>43755</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>43756</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>43757</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>43758</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>43759</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>43760</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>43761</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>43762</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>43763</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>43765</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>43766</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>43767</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>43768</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>43771</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>43772</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>43776</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>43777</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>43779</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>43780</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>43781</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>43782</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>43783</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>43785</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>43786</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>43787</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>43788</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>43789</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>43791</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>43792</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>43793</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>43794</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>43795</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>43796</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>43799</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>43801</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>43802</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>43804</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>43805</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>43806</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>43807</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>43808</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>43809</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>43810</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>43811</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>43812</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>43813</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>43815</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>43816</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>43817</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>43818</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>43819</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>43820</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>43821</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>43823</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>43826</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>43827</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>43828</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>43829</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>43830</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>seaforth_sportfishing!$N$2:$N$312</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="311"/>
+                <c:pt idx="110">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>78.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>93.3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>84.7</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>96.3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>99.1</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>72.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>83.1</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>56.9</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>48.3</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>84.7</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>99.3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>79.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>86.6</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>93.3</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>97.3</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>97.9</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>88.1</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>83.9</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDB6-4E3B-9842-39DBD7C14B62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="105761855"/>
+        <c:axId val="105758111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="105761855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43810"/>
+          <c:min val="43650"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="105758111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="105758111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="105761855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11214,20 +13123,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>93134</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179388</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11247,6 +13672,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145256</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D696A5CA-1952-86BF-7687-33BEE2710423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11552,15 +14013,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M316"/>
+  <dimension ref="A1:O317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11600,8 +14061,11 @@
       <c r="M1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>43467</v>
       </c>
@@ -11647,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>43468</v>
       </c>
@@ -11693,7 +14157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>43470</v>
       </c>
@@ -11739,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>43471</v>
       </c>
@@ -11785,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>43473</v>
       </c>
@@ -11831,7 +14295,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>43476</v>
       </c>
@@ -11877,7 +14341,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>43478</v>
       </c>
@@ -11923,7 +14387,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>43480</v>
       </c>
@@ -11969,7 +14433,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>43481</v>
       </c>
@@ -12015,7 +14479,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>43482</v>
       </c>
@@ -12061,7 +14525,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>43484</v>
       </c>
@@ -12107,7 +14571,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>43486</v>
       </c>
@@ -12153,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>43488</v>
       </c>
@@ -12199,7 +14663,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>43489</v>
       </c>
@@ -12245,7 +14709,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>43490</v>
       </c>
@@ -12291,7 +14755,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>43492</v>
       </c>
@@ -12337,7 +14801,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>43494</v>
       </c>
@@ -12383,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>43496</v>
       </c>
@@ -12429,7 +14893,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>43503</v>
       </c>
@@ -12475,7 +14939,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>43505</v>
       </c>
@@ -12521,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>43506</v>
       </c>
@@ -12567,7 +15031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>43507</v>
       </c>
@@ -12613,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>43515</v>
       </c>
@@ -12659,7 +15123,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>43516</v>
       </c>
@@ -12705,7 +15169,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>43518</v>
       </c>
@@ -12751,7 +15215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>43519</v>
       </c>
@@ -12797,7 +15261,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>43520</v>
       </c>
@@ -12843,7 +15307,7 @@
         <v>0.19230769230769232</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>43522</v>
       </c>
@@ -12889,7 +15353,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>43524</v>
       </c>
@@ -12935,7 +15399,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>43525</v>
       </c>
@@ -12981,7 +15445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>43527</v>
       </c>
@@ -13027,7 +15491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>43528</v>
       </c>
@@ -13073,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>43529</v>
       </c>
@@ -13119,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>43531</v>
       </c>
@@ -13165,7 +15629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>43533</v>
       </c>
@@ -13211,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>43534</v>
       </c>
@@ -13257,7 +15721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>43535</v>
       </c>
@@ -13303,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>43536</v>
       </c>
@@ -13349,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>43537</v>
       </c>
@@ -13395,7 +15859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>43538</v>
       </c>
@@ -13441,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>43539</v>
       </c>
@@ -13487,7 +15951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>43540</v>
       </c>
@@ -13533,7 +15997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>43541</v>
       </c>
@@ -13579,7 +16043,7 @@
         <v>7.575757575757576E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>43542</v>
       </c>
@@ -13625,7 +16089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>43543</v>
       </c>
@@ -13671,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>43545</v>
       </c>
@@ -13717,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>43546</v>
       </c>
@@ -13763,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>43547</v>
       </c>
@@ -13809,7 +16273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>43548</v>
       </c>
@@ -13855,7 +16319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>43549</v>
       </c>
@@ -13901,7 +16365,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>43550</v>
       </c>
@@ -13947,7 +16411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>43551</v>
       </c>
@@ -13993,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>43552</v>
       </c>
@@ -14039,7 +16503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>43553</v>
       </c>
@@ -14085,7 +16549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>43554</v>
       </c>
@@ -14131,7 +16595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>43555</v>
       </c>
@@ -14177,7 +16641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>43556</v>
       </c>
@@ -14223,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>43557</v>
       </c>
@@ -14269,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>43558</v>
       </c>
@@ -14315,7 +16779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>43559</v>
       </c>
@@ -14361,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>43560</v>
       </c>
@@ -14407,7 +16871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>43561</v>
       </c>
@@ -14453,7 +16917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>43562</v>
       </c>
@@ -14499,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>43563</v>
       </c>
@@ -14545,7 +17009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>43566</v>
       </c>
@@ -14591,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>43568</v>
       </c>
@@ -14637,7 +17101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>43569</v>
       </c>
@@ -14683,7 +17147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>43570</v>
       </c>
@@ -14729,7 +17193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>43571</v>
       </c>
@@ -14775,7 +17239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>43572</v>
       </c>
@@ -14821,7 +17285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>43573</v>
       </c>
@@ -14867,7 +17331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>43574</v>
       </c>
@@ -14913,7 +17377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>43575</v>
       </c>
@@ -14959,7 +17423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>43576</v>
       </c>
@@ -15005,7 +17469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>43577</v>
       </c>
@@ -15051,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>43578</v>
       </c>
@@ -15097,7 +17561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>43579</v>
       </c>
@@ -15143,7 +17607,7 @@
         <v>1.6393442622950821E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>43580</v>
       </c>
@@ -15189,7 +17653,7 @@
         <v>1.1764705882352942</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>43581</v>
       </c>
@@ -15235,7 +17699,7 @@
         <v>1.0526315789473684</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>43582</v>
       </c>
@@ -15281,7 +17745,7 @@
         <v>0.15544041450777202</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>43583</v>
       </c>
@@ -15327,7 +17791,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>43584</v>
       </c>
@@ -15373,7 +17837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>43585</v>
       </c>
@@ -15419,7 +17883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>43586</v>
       </c>
@@ -15465,7 +17929,7 @@
         <v>0.25675675675675674</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>43587</v>
       </c>
@@ -15511,7 +17975,7 @@
         <v>0.43548387096774194</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>43588</v>
       </c>
@@ -15557,7 +18021,7 @@
         <v>9.4827586206896547E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>43589</v>
       </c>
@@ -15603,7 +18067,7 @@
         <v>0.11278195488721804</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>43590</v>
       </c>
@@ -15649,7 +18113,7 @@
         <v>0.12658227848101267</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>43591</v>
       </c>
@@ -15695,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>43592</v>
       </c>
@@ -15741,7 +18205,7 @@
         <v>7.9365079365079361E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>43593</v>
       </c>
@@ -15787,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>43594</v>
       </c>
@@ -15833,7 +18297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>43595</v>
       </c>
@@ -15879,7 +18343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>43596</v>
       </c>
@@ -15925,7 +18389,7 @@
         <v>5.434782608695652E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>43597</v>
       </c>
@@ -15971,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:14">
       <c r="A97" s="1">
         <v>43598</v>
       </c>
@@ -16017,7 +18481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:14">
       <c r="A98" s="1">
         <v>43599</v>
       </c>
@@ -16063,7 +18527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>43600</v>
       </c>
@@ -16109,7 +18573,7 @@
         <v>0.15789473684210525</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>43601</v>
       </c>
@@ -16155,7 +18619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>43603</v>
       </c>
@@ -16201,7 +18665,7 @@
         <v>2.34375E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:14">
       <c r="A102" s="1">
         <v>43604</v>
       </c>
@@ -16247,7 +18711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:14">
       <c r="A103" s="1">
         <v>43608</v>
       </c>
@@ -16293,7 +18757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:14">
       <c r="A104" s="1">
         <v>43609</v>
       </c>
@@ -16339,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:14">
       <c r="A105" s="1">
         <v>43610</v>
       </c>
@@ -16385,7 +18849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:14">
       <c r="A106" s="1">
         <v>43611</v>
       </c>
@@ -16431,7 +18895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:14">
       <c r="A107" s="1">
         <v>43612</v>
       </c>
@@ -16477,7 +18941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:14">
       <c r="A108" s="1">
         <v>43613</v>
       </c>
@@ -16523,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:14">
       <c r="A109" s="1">
         <v>43614</v>
       </c>
@@ -16569,7 +19033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:14">
       <c r="A110" s="1">
         <v>43615</v>
       </c>
@@ -16615,7 +19079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:14">
       <c r="A111" s="1">
         <v>43616</v>
       </c>
@@ -16661,7 +19125,7 @@
         <v>6.1538461538461542E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:14">
       <c r="A112" s="1">
         <v>43617</v>
       </c>
@@ -16706,8 +19170,11 @@
         <f t="shared" si="19"/>
         <v>4.9586776859504134E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N112" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1">
         <v>43618</v>
       </c>
@@ -16752,8 +19219,11 @@
         <f t="shared" si="19"/>
         <v>8.0645161290322578E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N113" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1">
         <v>43619</v>
       </c>
@@ -16798,8 +19268,11 @@
         <f t="shared" si="19"/>
         <v>9.2592592592592587E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N114" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1">
         <v>43620</v>
       </c>
@@ -16844,8 +19317,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N115" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1">
         <v>43621</v>
       </c>
@@ -16890,8 +19366,11 @@
         <f t="shared" si="19"/>
         <v>2.7777777777777776E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N116" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1">
         <v>43622</v>
       </c>
@@ -16936,8 +19415,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N117" s="2">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1">
         <v>43623</v>
       </c>
@@ -16982,8 +19464,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N118" s="2">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1">
         <v>43624</v>
       </c>
@@ -17028,8 +19513,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N119" s="2">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1">
         <v>43625</v>
       </c>
@@ -17074,8 +19562,11 @@
         <f t="shared" si="19"/>
         <v>4.8543689320388349E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N120" s="2">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1">
         <v>43626</v>
       </c>
@@ -17120,8 +19611,11 @@
         <f t="shared" si="19"/>
         <v>0.34782608695652173</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N121" s="2">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1">
         <v>43627</v>
       </c>
@@ -17166,8 +19660,11 @@
         <f t="shared" si="19"/>
         <v>8.6206896551724137E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N122" s="2">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1">
         <v>43628</v>
       </c>
@@ -17212,8 +19709,11 @@
         <f t="shared" si="19"/>
         <v>6.8627450980392163E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N123" s="2">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1">
         <v>43629</v>
       </c>
@@ -17258,8 +19758,11 @@
         <f t="shared" si="19"/>
         <v>0.10144927536231885</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N124" s="2">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1">
         <v>43630</v>
       </c>
@@ -17304,8 +19807,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N125" s="2">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1">
         <v>43631</v>
       </c>
@@ -17350,8 +19856,11 @@
         <f t="shared" si="19"/>
         <v>0.19148936170212766</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N126" s="2">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1">
         <v>43632</v>
       </c>
@@ -17396,8 +19905,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N127" s="2">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1">
         <v>43633</v>
       </c>
@@ -17442,8 +19954,11 @@
         <f t="shared" si="19"/>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N128" s="2">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" s="1">
         <v>43634</v>
       </c>
@@ -17488,8 +20003,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N129" s="2">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" s="1">
         <v>43635</v>
       </c>
@@ -17534,8 +20052,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N130" s="2">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" s="1">
         <v>43636</v>
       </c>
@@ -17580,8 +20101,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N131" s="2">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="1">
         <v>43637</v>
       </c>
@@ -17626,8 +20150,11 @@
         <f t="shared" ref="M132:M195" si="24">H132/C132</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N132" s="2">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="1">
         <v>43638</v>
       </c>
@@ -17672,8 +20199,11 @@
         <f t="shared" si="24"/>
         <v>0.17412935323383086</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N133" s="2">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="1">
         <v>43639</v>
       </c>
@@ -17718,8 +20248,11 @@
         <f t="shared" si="24"/>
         <v>5.4495912806539508E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N134" s="2">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="1">
         <v>43640</v>
       </c>
@@ -17764,8 +20297,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N135" s="2">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" s="1">
         <v>43641</v>
       </c>
@@ -17810,8 +20346,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N136" s="2">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" s="1">
         <v>43642</v>
       </c>
@@ -17856,8 +20395,11 @@
         <f t="shared" si="24"/>
         <v>0.11428571428571428</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N137" s="2">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" s="1">
         <v>43643</v>
       </c>
@@ -17902,8 +20444,11 @@
         <f t="shared" si="24"/>
         <v>0.12698412698412698</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N138" s="2">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" s="1">
         <v>43644</v>
       </c>
@@ -17948,8 +20493,11 @@
         <f t="shared" si="24"/>
         <v>5.8823529411764705E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N139" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" s="1">
         <v>43645</v>
       </c>
@@ -17994,8 +20542,11 @@
         <f t="shared" si="24"/>
         <v>0.49407114624505927</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N140" s="2">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" s="1">
         <v>43646</v>
       </c>
@@ -18040,8 +20591,11 @@
         <f t="shared" si="24"/>
         <v>0.19305019305019305</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N141" s="2">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" s="1">
         <v>43647</v>
       </c>
@@ -18086,8 +20640,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N142" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="1">
         <v>43648</v>
       </c>
@@ -18132,8 +20689,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="1">
         <v>43649</v>
       </c>
@@ -18178,8 +20738,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="1">
         <v>43650</v>
       </c>
@@ -18224,8 +20787,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N145" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="1">
         <v>43651</v>
       </c>
@@ -18270,8 +20836,11 @@
         <f t="shared" si="24"/>
         <v>1.5748031496062992E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N146" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" s="1">
         <v>43652</v>
       </c>
@@ -18316,8 +20885,11 @@
         <f t="shared" si="24"/>
         <v>3.875968992248062E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N147" s="2">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" s="1">
         <v>43653</v>
       </c>
@@ -18362,8 +20934,11 @@
         <f t="shared" si="24"/>
         <v>9.8425196850393706E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N148" s="2">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" s="1">
         <v>43654</v>
       </c>
@@ -18408,8 +20983,11 @@
         <f t="shared" si="24"/>
         <v>0.32857142857142857</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N149" s="2">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" s="1">
         <v>43655</v>
       </c>
@@ -18454,8 +21032,11 @@
         <f t="shared" si="24"/>
         <v>0.42424242424242425</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N150" s="2">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" s="1">
         <v>43656</v>
       </c>
@@ -18500,8 +21081,11 @@
         <f t="shared" si="24"/>
         <v>0.21383647798742139</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N151" s="2">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" s="1">
         <v>43657</v>
       </c>
@@ -18546,8 +21130,11 @@
         <f t="shared" si="24"/>
         <v>8.5561497326203204E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N152" s="2">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" s="1">
         <v>43658</v>
       </c>
@@ -18592,8 +21179,11 @@
         <f t="shared" si="24"/>
         <v>0.13043478260869565</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N153" s="2">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" s="1">
         <v>43659</v>
       </c>
@@ -18638,8 +21228,11 @@
         <f t="shared" si="24"/>
         <v>0.95750708215297453</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N154" s="2">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="1">
         <v>43660</v>
       </c>
@@ -18684,8 +21277,11 @@
         <f t="shared" si="24"/>
         <v>0.69169960474308301</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N155" s="2">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" s="1">
         <v>43661</v>
       </c>
@@ -18730,8 +21326,11 @@
         <f t="shared" si="24"/>
         <v>0.32692307692307693</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N156" s="2">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" s="1">
         <v>43662</v>
       </c>
@@ -18776,8 +21375,11 @@
         <f t="shared" si="24"/>
         <v>0.82474226804123707</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N157" s="2">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" s="1">
         <v>43663</v>
       </c>
@@ -18822,8 +21424,11 @@
         <f t="shared" si="24"/>
         <v>0.41626794258373206</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N158" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" s="1">
         <v>43664</v>
       </c>
@@ -18868,8 +21473,11 @@
         <f t="shared" si="24"/>
         <v>0.22869955156950672</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N159" s="2">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" s="1">
         <v>43665</v>
       </c>
@@ -18914,8 +21522,11 @@
         <f t="shared" si="24"/>
         <v>0.44910179640718562</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N160" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="1">
         <v>43666</v>
       </c>
@@ -18960,8 +21571,11 @@
         <f t="shared" si="24"/>
         <v>0.66765578635014833</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N161" s="2">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="1">
         <v>43667</v>
       </c>
@@ -19006,8 +21620,11 @@
         <f t="shared" si="24"/>
         <v>1.1455108359133126</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N162" s="2">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="1">
         <v>43668</v>
       </c>
@@ -19052,8 +21669,11 @@
         <f t="shared" si="24"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N163" s="2">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="1">
         <v>43669</v>
       </c>
@@ -19098,8 +21718,11 @@
         <f t="shared" si="24"/>
         <v>0.52631578947368418</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N164" s="2">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="1">
         <v>43670</v>
       </c>
@@ -19144,8 +21767,11 @@
         <f t="shared" si="24"/>
         <v>0.61576354679802958</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N165" s="2">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="1">
         <v>43671</v>
       </c>
@@ -19190,8 +21816,11 @@
         <f t="shared" si="24"/>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N166" s="2">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="1">
         <v>43672</v>
       </c>
@@ -19236,8 +21865,11 @@
         <f t="shared" si="24"/>
         <v>0.49833887043189368</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N167" s="2">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="1">
         <v>43673</v>
       </c>
@@ -19282,8 +21914,11 @@
         <f t="shared" si="24"/>
         <v>1.6483516483516483</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N168" s="2">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="1">
         <v>43674</v>
       </c>
@@ -19328,8 +21963,11 @@
         <f t="shared" si="24"/>
         <v>0.90410958904109584</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N169" s="2">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="1">
         <v>43675</v>
       </c>
@@ -19374,8 +22012,11 @@
         <f t="shared" si="24"/>
         <v>1.224390243902439</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N170" s="2">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="1">
         <v>43676</v>
       </c>
@@ -19420,8 +22061,11 @@
         <f t="shared" si="24"/>
         <v>0.78947368421052633</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N171" s="2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="1">
         <v>43677</v>
       </c>
@@ -19466,8 +22110,11 @@
         <f t="shared" si="24"/>
         <v>1.2639405204460967</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N172" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="1">
         <v>43678</v>
       </c>
@@ -19512,8 +22159,11 @@
         <f t="shared" si="24"/>
         <v>0.59171597633136097</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N173" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="1">
         <v>43679</v>
       </c>
@@ -19558,8 +22208,11 @@
         <f t="shared" si="24"/>
         <v>0.51186440677966105</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N174" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="1">
         <v>43680</v>
       </c>
@@ -19604,8 +22257,11 @@
         <f t="shared" si="24"/>
         <v>0.68265682656826565</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N175" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="1">
         <v>43681</v>
       </c>
@@ -19650,8 +22306,11 @@
         <f t="shared" si="24"/>
         <v>0.99431818181818177</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N176" s="2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" s="1">
         <v>43682</v>
       </c>
@@ -19696,8 +22355,11 @@
         <f t="shared" si="24"/>
         <v>1.7391304347826086</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N177" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" s="1">
         <v>43683</v>
       </c>
@@ -19742,8 +22404,11 @@
         <f t="shared" si="24"/>
         <v>1.2216748768472907</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N178" s="2">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" s="1">
         <v>43684</v>
       </c>
@@ -19788,8 +22453,11 @@
         <f t="shared" si="24"/>
         <v>2.1666666666666665</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N179" s="2">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" s="1">
         <v>43685</v>
       </c>
@@ -19834,8 +22502,11 @@
         <f t="shared" si="24"/>
         <v>0.60233918128654973</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N180" s="2">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" s="1">
         <v>43686</v>
       </c>
@@ -19880,8 +22551,11 @@
         <f t="shared" si="24"/>
         <v>0.47770700636942676</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N181" s="2">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" s="1">
         <v>43687</v>
       </c>
@@ -19926,8 +22600,11 @@
         <f t="shared" si="24"/>
         <v>0.55205047318611988</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N182" s="2">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" s="1">
         <v>43688</v>
       </c>
@@ -19972,8 +22649,11 @@
         <f t="shared" si="24"/>
         <v>1.0169491525423728</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N183" s="2">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" s="1">
         <v>43689</v>
       </c>
@@ -20018,8 +22698,11 @@
         <f t="shared" si="24"/>
         <v>1.116751269035533</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N184" s="2">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" s="1">
         <v>43690</v>
       </c>
@@ -20064,8 +22747,11 @@
         <f t="shared" si="24"/>
         <v>0.83682008368200833</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N185" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" s="1">
         <v>43691</v>
       </c>
@@ -20110,8 +22796,11 @@
         <f t="shared" si="24"/>
         <v>0.95238095238095233</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N186" s="2">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" s="1">
         <v>43692</v>
       </c>
@@ -20156,8 +22845,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N187" s="2">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" s="1">
         <v>43693</v>
       </c>
@@ -20202,8 +22894,11 @@
         <f t="shared" si="24"/>
         <v>0.24038461538461539</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N188" s="2">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" s="1">
         <v>43694</v>
       </c>
@@ -20248,8 +22943,11 @@
         <f t="shared" si="24"/>
         <v>0.84587813620071683</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N189" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" s="1">
         <v>43695</v>
       </c>
@@ -20294,8 +22992,11 @@
         <f t="shared" si="24"/>
         <v>0.92838196286472152</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N190" s="2">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" s="1">
         <v>43696</v>
       </c>
@@ -20340,8 +23041,11 @@
         <f t="shared" si="24"/>
         <v>0.48979591836734693</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N191" s="2">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" s="1">
         <v>43697</v>
       </c>
@@ -20386,8 +23090,11 @@
         <f t="shared" si="24"/>
         <v>0.22727272727272727</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N192" s="2">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>43698</v>
       </c>
@@ -20432,8 +23139,11 @@
         <f t="shared" si="24"/>
         <v>4.2553191489361703E-3</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N193" s="2">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" s="1">
         <v>43699</v>
       </c>
@@ -20478,8 +23188,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N194" s="2">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" s="1">
         <v>43700</v>
       </c>
@@ -20524,8 +23237,11 @@
         <f t="shared" si="24"/>
         <v>7.2992700729927001E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N195" s="2">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" s="1">
         <v>43701</v>
       </c>
@@ -20570,8 +23286,11 @@
         <f t="shared" ref="M196:M259" si="29">H196/C196</f>
         <v>0.49707602339181284</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N196" s="2">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" s="1">
         <v>43702</v>
       </c>
@@ -20616,8 +23335,11 @@
         <f t="shared" si="29"/>
         <v>0.23094688221709006</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N197" s="2">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" s="1">
         <v>43703</v>
       </c>
@@ -20662,8 +23384,11 @@
         <f t="shared" si="29"/>
         <v>0.35135135135135137</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N198" s="2">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" s="1">
         <v>43704</v>
       </c>
@@ -20708,8 +23433,11 @@
         <f t="shared" si="29"/>
         <v>0.11406844106463879</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N199" s="2">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" s="1">
         <v>43705</v>
       </c>
@@ -20754,8 +23482,11 @@
         <f t="shared" si="29"/>
         <v>6.7226890756302518E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N200" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" s="1">
         <v>43706</v>
       </c>
@@ -20800,8 +23531,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N201" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" s="1">
         <v>43707</v>
       </c>
@@ -20846,8 +23580,11 @@
         <f t="shared" si="29"/>
         <v>0.21917808219178081</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N202" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" s="1">
         <v>43708</v>
       </c>
@@ -20892,8 +23629,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N203" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" s="1">
         <v>43709</v>
       </c>
@@ -20938,8 +23678,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N204" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" s="1">
         <v>43710</v>
       </c>
@@ -20984,8 +23727,11 @@
         <f t="shared" si="29"/>
         <v>0.11661807580174927</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N205" s="2">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" s="1">
         <v>43711</v>
       </c>
@@ -21030,8 +23776,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N206" s="2">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" s="1">
         <v>43712</v>
       </c>
@@ -21076,8 +23825,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N207" s="2">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" s="1">
         <v>43713</v>
       </c>
@@ -21122,8 +23874,11 @@
         <f t="shared" si="29"/>
         <v>0.23255813953488372</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N208" s="2">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" s="1">
         <v>43714</v>
       </c>
@@ -21168,8 +23923,11 @@
         <f t="shared" si="29"/>
         <v>0.38314176245210729</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N209" s="2">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" s="1">
         <v>43715</v>
       </c>
@@ -21214,8 +23972,11 @@
         <f t="shared" si="29"/>
         <v>0.62240663900414939</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N210" s="2">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" s="1">
         <v>43716</v>
       </c>
@@ -21260,8 +24021,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N211" s="2">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" s="1">
         <v>43717</v>
       </c>
@@ -21306,8 +24070,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N212" s="2">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" s="1">
         <v>43718</v>
       </c>
@@ -21352,8 +24119,11 @@
         <f t="shared" si="29"/>
         <v>0.17421602787456447</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N213" s="2">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" s="1">
         <v>43719</v>
       </c>
@@ -21398,8 +24168,11 @@
         <f t="shared" si="29"/>
         <v>0.38759689922480622</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N214" s="2">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" s="1">
         <v>43720</v>
       </c>
@@ -21444,8 +24217,11 @@
         <f t="shared" si="29"/>
         <v>0.75376884422110557</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N215" s="2">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" s="1">
         <v>43721</v>
       </c>
@@ -21490,8 +24266,11 @@
         <f t="shared" si="29"/>
         <v>0.3048780487804878</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N216" s="2">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" s="1">
         <v>43722</v>
       </c>
@@ -21536,8 +24315,11 @@
         <f t="shared" si="29"/>
         <v>0.10869565217391304</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N217" s="2">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" s="1">
         <v>43723</v>
       </c>
@@ -21582,8 +24364,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N218" s="2">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" s="1">
         <v>43724</v>
       </c>
@@ -21628,8 +24413,11 @@
         <f t="shared" si="29"/>
         <v>0.12690355329949238</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N219" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" s="1">
         <v>43725</v>
       </c>
@@ -21674,8 +24462,11 @@
         <f t="shared" si="29"/>
         <v>0.10050251256281408</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N220" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" s="1">
         <v>43726</v>
       </c>
@@ -21720,8 +24511,11 @@
         <f t="shared" si="29"/>
         <v>2.6455026455026454E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N221" s="2">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" s="1">
         <v>43727</v>
       </c>
@@ -21766,8 +24560,11 @@
         <f t="shared" si="29"/>
         <v>4.4871794871794872E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N222" s="2">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" s="1">
         <v>43728</v>
       </c>
@@ -21812,8 +24609,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N223" s="2">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" s="1">
         <v>43729</v>
       </c>
@@ -21858,8 +24658,11 @@
         <f t="shared" si="29"/>
         <v>3.896103896103896E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N224" s="2">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" s="1">
         <v>43730</v>
       </c>
@@ -21904,8 +24707,11 @@
         <f t="shared" si="29"/>
         <v>1.1661807580174927E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N225" s="2">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" s="1">
         <v>43731</v>
       </c>
@@ -21950,8 +24756,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N226" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" s="1">
         <v>43732</v>
       </c>
@@ -21996,8 +24805,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N227" s="2">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" s="1">
         <v>43733</v>
       </c>
@@ -22042,8 +24854,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N228" s="2">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" s="1">
         <v>43734</v>
       </c>
@@ -22088,8 +24903,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N229" s="2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" s="1">
         <v>43735</v>
       </c>
@@ -22134,8 +24952,11 @@
         <f t="shared" si="29"/>
         <v>0.12820512820512819</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N230" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" s="1">
         <v>43736</v>
       </c>
@@ -22180,8 +25001,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N231" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" s="1">
         <v>43737</v>
       </c>
@@ -22226,8 +25050,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N232" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" s="1">
         <v>43738</v>
       </c>
@@ -22272,8 +25099,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N233" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" s="1">
         <v>43739</v>
       </c>
@@ -22318,8 +25148,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N234" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" s="1">
         <v>43740</v>
       </c>
@@ -22364,8 +25197,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N235" s="2">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" s="1">
         <v>43741</v>
       </c>
@@ -22410,8 +25246,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N236" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" s="1">
         <v>43742</v>
       </c>
@@ -22456,8 +25295,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N237" s="2">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" s="1">
         <v>43743</v>
       </c>
@@ -22502,8 +25344,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N238" s="2">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" s="1">
         <v>43744</v>
       </c>
@@ -22548,8 +25393,11 @@
         <f t="shared" si="29"/>
         <v>1.048951048951049E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N239" s="2">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" s="1">
         <v>43745</v>
       </c>
@@ -22594,8 +25442,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N240" s="2">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" s="1">
         <v>43746</v>
       </c>
@@ -22640,8 +25491,11 @@
         <f t="shared" si="29"/>
         <v>1.0869565217391304E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N241" s="2">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" s="1">
         <v>43747</v>
       </c>
@@ -22686,8 +25540,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N242" s="2">
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" s="1">
         <v>43748</v>
       </c>
@@ -22732,8 +25589,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N243" s="2">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" s="1">
         <v>43749</v>
       </c>
@@ -22778,8 +25638,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N244" s="2">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" s="1">
         <v>43750</v>
       </c>
@@ -22824,8 +25687,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N245" s="2">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" s="1">
         <v>43751</v>
       </c>
@@ -22870,8 +25736,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N246" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" s="1">
         <v>43752</v>
       </c>
@@ -22916,8 +25785,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N247" s="2">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" s="1">
         <v>43753</v>
       </c>
@@ -22962,8 +25834,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N248" s="2">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" s="1">
         <v>43754</v>
       </c>
@@ -23008,8 +25883,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N249" s="2">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" s="1">
         <v>43755</v>
       </c>
@@ -23054,8 +25932,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N250" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" s="1">
         <v>43756</v>
       </c>
@@ -23100,8 +25981,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N251" s="2">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" s="1">
         <v>43757</v>
       </c>
@@ -23146,8 +26030,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N252" s="2">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" s="1">
         <v>43758</v>
       </c>
@@ -23192,8 +26079,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N253" s="2">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" s="1">
         <v>43759</v>
       </c>
@@ -23238,8 +26128,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N254" s="2">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" s="1">
         <v>43760</v>
       </c>
@@ -23284,8 +26177,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N255" s="2">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" s="1">
         <v>43761</v>
       </c>
@@ -23330,8 +26226,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N256" s="2">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15">
       <c r="A257" s="1">
         <v>43762</v>
       </c>
@@ -23376,8 +26275,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N257" s="2">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15">
       <c r="A258" s="1">
         <v>43763</v>
       </c>
@@ -23422,8 +26324,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N258" s="2">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15">
       <c r="A259" s="1">
         <v>43764</v>
       </c>
@@ -23468,8 +26373,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N259" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15">
       <c r="A260" s="1">
         <v>43765</v>
       </c>
@@ -23514,8 +26422,11 @@
         <f t="shared" ref="M260:M316" si="34">H260/C260</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N260" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15">
       <c r="A261" s="1">
         <v>43766</v>
       </c>
@@ -23560,8 +26471,11 @@
         <f t="shared" si="34"/>
         <v>9.9009900990099011E-3</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N261" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15">
       <c r="A262" s="1">
         <v>43767</v>
       </c>
@@ -23606,8 +26520,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N262" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15">
       <c r="A263" s="1">
         <v>43768</v>
       </c>
@@ -23652,8 +26569,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N263" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15">
       <c r="A264" s="1">
         <v>43769</v>
       </c>
@@ -23698,8 +26618,11 @@
         <f t="shared" si="34"/>
         <v>0.1388888888888889</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N264" s="2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15">
       <c r="A265" s="1">
         <v>43770</v>
       </c>
@@ -23744,8 +26667,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N265" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="O265" s="3"/>
+    </row>
+    <row r="266" spans="1:15">
       <c r="A266" s="1">
         <v>43771</v>
       </c>
@@ -23790,8 +26717,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N266" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="O266" s="3"/>
+    </row>
+    <row r="267" spans="1:15">
       <c r="A267" s="1">
         <v>43772</v>
       </c>
@@ -23836,8 +26767,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N267" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="O267" s="3"/>
+    </row>
+    <row r="268" spans="1:15">
       <c r="A268" s="1">
         <v>43773</v>
       </c>
@@ -23882,8 +26817,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N268" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="O268" s="3"/>
+    </row>
+    <row r="269" spans="1:15">
       <c r="A269" s="1">
         <v>43774</v>
       </c>
@@ -23928,8 +26867,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N269" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="O269" s="3"/>
+    </row>
+    <row r="270" spans="1:15">
       <c r="A270" s="1">
         <v>43776</v>
       </c>
@@ -23974,8 +26917,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N270" s="2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="O270" s="3"/>
+    </row>
+    <row r="271" spans="1:15">
       <c r="A271" s="1">
         <v>43777</v>
       </c>
@@ -24020,8 +26967,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N271" s="2">
+        <v>73.2</v>
+      </c>
+      <c r="O271" s="3"/>
+    </row>
+    <row r="272" spans="1:15">
       <c r="A272" s="1">
         <v>43778</v>
       </c>
@@ -24066,8 +27017,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N272" s="2">
+        <v>81</v>
+      </c>
+      <c r="O272" s="3"/>
+    </row>
+    <row r="273" spans="1:15">
       <c r="A273" s="1">
         <v>43779</v>
       </c>
@@ -24112,8 +27067,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N273" s="2">
+        <v>87.8</v>
+      </c>
+      <c r="O273" s="3"/>
+    </row>
+    <row r="274" spans="1:15">
       <c r="A274" s="1">
         <v>43780</v>
       </c>
@@ -24158,8 +27117,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N274" s="2">
+        <v>93.3</v>
+      </c>
+      <c r="O274" s="3"/>
+    </row>
+    <row r="275" spans="1:15">
       <c r="A275" s="1">
         <v>43781</v>
       </c>
@@ -24204,8 +27167,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N275" s="2">
+        <v>97.3</v>
+      </c>
+      <c r="O275" s="3"/>
+    </row>
+    <row r="276" spans="1:15">
       <c r="A276" s="1">
         <v>43782</v>
       </c>
@@ -24250,8 +27217,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N276" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="O276" s="3"/>
+    </row>
+    <row r="277" spans="1:15">
       <c r="A277" s="1">
         <v>43783</v>
       </c>
@@ -24296,8 +27267,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N277" s="2">
+        <v>99.7</v>
+      </c>
+      <c r="O277" s="3"/>
+    </row>
+    <row r="278" spans="1:15">
       <c r="A278" s="1">
         <v>43784</v>
       </c>
@@ -24342,8 +27317,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N278" s="2">
+        <v>97.9</v>
+      </c>
+      <c r="O278" s="3"/>
+    </row>
+    <row r="279" spans="1:15">
       <c r="A279" s="1">
         <v>43785</v>
       </c>
@@ -24388,8 +27367,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N279" s="2">
+        <v>94</v>
+      </c>
+      <c r="O279" s="3"/>
+    </row>
+    <row r="280" spans="1:15">
       <c r="A280" s="1">
         <v>43786</v>
       </c>
@@ -24434,8 +27417,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N280" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="O280" s="3"/>
+    </row>
+    <row r="281" spans="1:15">
       <c r="A281" s="1">
         <v>43787</v>
       </c>
@@ -24480,8 +27467,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N281" s="2">
+        <v>80.3</v>
+      </c>
+      <c r="O281" s="3"/>
+    </row>
+    <row r="282" spans="1:15">
       <c r="A282" s="1">
         <v>43788</v>
       </c>
@@ -24526,8 +27517,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N282" s="2">
+        <v>71</v>
+      </c>
+      <c r="O282" s="3"/>
+    </row>
+    <row r="283" spans="1:15">
       <c r="A283" s="1">
         <v>43789</v>
       </c>
@@ -24572,8 +27567,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N283" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="O283" s="3"/>
+    </row>
+    <row r="284" spans="1:15">
       <c r="A284" s="1">
         <v>43791</v>
       </c>
@@ -24618,8 +27617,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N284" s="2">
+        <v>38</v>
+      </c>
+      <c r="O284" s="3"/>
+    </row>
+    <row r="285" spans="1:15">
       <c r="A285" s="1">
         <v>43792</v>
       </c>
@@ -24664,8 +27667,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N285" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="O285" s="3"/>
+    </row>
+    <row r="286" spans="1:15">
       <c r="A286" s="1">
         <v>43793</v>
       </c>
@@ -24710,8 +27717,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N286" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="O286" s="3"/>
+    </row>
+    <row r="287" spans="1:15">
       <c r="A287" s="1">
         <v>43794</v>
       </c>
@@ -24756,8 +27767,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N287" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="O287" s="3"/>
+    </row>
+    <row r="288" spans="1:15">
       <c r="A288" s="1">
         <v>43795</v>
       </c>
@@ -24802,8 +27817,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N288" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="O288" s="3"/>
+    </row>
+    <row r="289" spans="1:15">
       <c r="A289" s="1">
         <v>43796</v>
       </c>
@@ -24848,8 +27867,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N289" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O289" s="3"/>
+    </row>
+    <row r="290" spans="1:15">
       <c r="A290" s="1">
         <v>43799</v>
       </c>
@@ -24894,8 +27917,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N290" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="O290" s="3"/>
+    </row>
+    <row r="291" spans="1:15">
       <c r="A291" s="1">
         <v>43800</v>
       </c>
@@ -24940,8 +27967,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N291" s="2">
+        <v>20</v>
+      </c>
+      <c r="O291" s="3"/>
+    </row>
+    <row r="292" spans="1:15">
       <c r="A292" s="1">
         <v>43801</v>
       </c>
@@ -24986,8 +28017,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N292" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="O292" s="3"/>
+    </row>
+    <row r="293" spans="1:15">
       <c r="A293" s="1">
         <v>43802</v>
       </c>
@@ -25032,8 +28067,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N293" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="O293" s="3"/>
+    </row>
+    <row r="294" spans="1:15">
       <c r="A294" s="1">
         <v>43804</v>
       </c>
@@ -25078,8 +28117,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N294" s="2">
+        <v>56.4</v>
+      </c>
+      <c r="O294" s="3"/>
+    </row>
+    <row r="295" spans="1:15">
       <c r="A295" s="1">
         <v>43805</v>
       </c>
@@ -25124,8 +28167,11 @@
         <f t="shared" si="34"/>
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N295" s="2">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15">
       <c r="A296" s="1">
         <v>43806</v>
       </c>
@@ -25170,8 +28216,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N296" s="2">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15">
       <c r="A297" s="1">
         <v>43807</v>
       </c>
@@ -25216,8 +28265,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N297" s="2">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15">
       <c r="A298" s="1">
         <v>43808</v>
       </c>
@@ -25262,8 +28314,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N298" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15">
       <c r="A299" s="1">
         <v>43809</v>
       </c>
@@ -25308,8 +28363,11 @@
         <f t="shared" si="34"/>
         <v>3.7735849056603772E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N299" s="2">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15">
       <c r="A300" s="1">
         <v>43810</v>
       </c>
@@ -25354,8 +28412,11 @@
         <f t="shared" si="34"/>
         <v>0.12903225806451613</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N300" s="2">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15">
       <c r="A301" s="1">
         <v>43811</v>
       </c>
@@ -25400,8 +28461,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N301" s="2">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15">
       <c r="A302" s="1">
         <v>43812</v>
       </c>
@@ -25446,8 +28510,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N302" s="2">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15">
       <c r="A303" s="1">
         <v>43813</v>
       </c>
@@ -25492,8 +28559,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N303" s="2">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15">
       <c r="A304" s="1">
         <v>43815</v>
       </c>
@@ -25538,8 +28608,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N304" s="2">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
       <c r="A305" s="1">
         <v>43816</v>
       </c>
@@ -25584,8 +28657,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N305" s="2">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
       <c r="A306" s="1">
         <v>43817</v>
       </c>
@@ -25630,8 +28706,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N306" s="2">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
       <c r="A307" s="1">
         <v>43818</v>
       </c>
@@ -25676,8 +28755,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N307" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
       <c r="A308" s="1">
         <v>43819</v>
       </c>
@@ -25722,8 +28804,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N308" s="2">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
       <c r="A309" s="1">
         <v>43820</v>
       </c>
@@ -25768,8 +28853,11 @@
         <f t="shared" si="34"/>
         <v>1.7241379310344827E-2</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N309" s="2">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
       <c r="A310" s="1">
         <v>43821</v>
       </c>
@@ -25814,8 +28902,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N310" s="2">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
       <c r="A311" s="1">
         <v>43823</v>
       </c>
@@ -25860,8 +28951,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N311" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
       <c r="A312" s="1">
         <v>43826</v>
       </c>
@@ -25906,8 +29000,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N312" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
       <c r="A313" s="1">
         <v>43827</v>
       </c>
@@ -25952,8 +29049,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N313" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
       <c r="A314" s="1">
         <v>43828</v>
       </c>
@@ -25998,8 +29098,11 @@
         <f t="shared" si="34"/>
         <v>1.3698630136986301E-2</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N314" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14">
       <c r="A315" s="1">
         <v>43829</v>
       </c>
@@ -26044,8 +29147,11 @@
         <f t="shared" si="34"/>
         <v>6.4516129032258063E-2</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N315" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14">
       <c r="A316" s="1">
         <v>43830</v>
       </c>
@@ -26090,9 +29196,16 @@
         <f t="shared" si="34"/>
         <v>1.8867924528301886E-2</v>
       </c>
+      <c r="N316" s="2">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14">
+      <c r="N317" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>